--- a/Breaker - Project Planner.xlsx
+++ b/Breaker - Project Planner.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\OneDrive\Documents\GitHub\BKR-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{4303B239-3FA2-4C98-87AE-8B9437A60FE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{2D78183D-E024-4B3C-AB76-DE9A011ACBFC}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="8_{4303B239-3FA2-4C98-87AE-8B9437A60FE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{75754BD1-5250-4B78-B432-C020A99D3B21}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
-    <sheet name="Team Manpower" sheetId="4" r:id="rId2"/>
-    <sheet name="Equipment-Parts" sheetId="2" r:id="rId3"/>
-    <sheet name="User Interface" sheetId="3" r:id="rId4"/>
+    <sheet name="Backup" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Project Planner" sheetId="5" r:id="rId2"/>
+    <sheet name="Team Manpower" sheetId="4" r:id="rId3"/>
+    <sheet name="Equipment-Parts" sheetId="2" r:id="rId4"/>
+    <sheet name="User Interface" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="168">
   <si>
     <t>Abilities System</t>
   </si>
@@ -273,9 +274,6 @@
     <t>Define diferent layers (Ground, Ground Details, Walls, Final Details)</t>
   </si>
   <si>
-    <t>KUTM Studios</t>
-  </si>
-  <si>
     <t>Colissions setup for blocking objets such as walls</t>
   </si>
   <si>
@@ -346,6 +344,198 @@
   </si>
   <si>
     <t>Hours invested</t>
+  </si>
+  <si>
+    <t>Miguel Jr</t>
+  </si>
+  <si>
+    <t>Hector Jic</t>
+  </si>
+  <si>
+    <t>Luiz Enrike</t>
+  </si>
+  <si>
+    <t>Create Chasis Logic</t>
+  </si>
+  <si>
+    <t>Create L Shoulder Logic</t>
+  </si>
+  <si>
+    <t>Create L Hand Logic</t>
+  </si>
+  <si>
+    <t>Create Utilities Logic</t>
+  </si>
+  <si>
+    <t>Create R Shoulder Logic</t>
+  </si>
+  <si>
+    <t>Create R Hand Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign and display set of skills to a character </t>
+  </si>
+  <si>
+    <t>Create Skill Exp Logic</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Shops</t>
+  </si>
+  <si>
+    <t>Alfonso Flores</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Garage - Customize</t>
+  </si>
+  <si>
+    <t>NPCs Interaction</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>Total Weeks</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>W17</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>W26</t>
+  </si>
+  <si>
+    <t>W27</t>
+  </si>
+  <si>
+    <t>W28</t>
+  </si>
+  <si>
+    <t>W29</t>
+  </si>
+  <si>
+    <t>W30</t>
+  </si>
+  <si>
+    <t>W31</t>
+  </si>
+  <si>
+    <t>W32</t>
+  </si>
+  <si>
+    <t>W33</t>
+  </si>
+  <si>
+    <t>W34</t>
+  </si>
+  <si>
+    <t>W35</t>
+  </si>
+  <si>
+    <t>W36</t>
+  </si>
+  <si>
+    <t>W37</t>
+  </si>
+  <si>
+    <t>W38</t>
+  </si>
+  <si>
+    <t>W39</t>
+  </si>
+  <si>
+    <t>W40</t>
   </si>
 </sst>
 </file>
@@ -355,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -464,8 +654,20 @@
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +692,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,6 +916,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,50 +1006,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1126,10 +1416,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
@@ -1165,23 +1455,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" outlineLevel="7" x14ac:dyDescent="0.25">
@@ -1189,47 +1481,51 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" outlineLevel="6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" outlineLevel="7" x14ac:dyDescent="0.25">
@@ -1237,23 +1533,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" outlineLevel="7" x14ac:dyDescent="0.25">
@@ -1261,23 +1559,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" outlineLevel="7" x14ac:dyDescent="0.25">
@@ -1285,26 +1585,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1319,13 +1621,16 @@
       </c>
       <c r="E10" s="9">
         <f>SUM(E4:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="9">
+        <f>SUM(F4:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1352,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>6</v>
@@ -1366,10 +1671,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
@@ -1377,12 +1682,14 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,10 +1697,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>10</v>
@@ -1401,12 +1708,14 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>10</v>
@@ -1425,12 +1734,14 @@
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,10 +1749,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>10</v>
@@ -1449,12 +1760,14 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,10 +1775,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>10</v>
@@ -1473,12 +1786,14 @@
       <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,10 +1801,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>10</v>
@@ -1497,12 +1812,14 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,10 +1827,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
@@ -1521,12 +1838,14 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1534,10 +1853,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>10</v>
@@ -1545,12 +1864,14 @@
       <c r="E21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1558,10 +1879,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>10</v>
@@ -1569,12 +1890,14 @@
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,10 +1905,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>10</v>
@@ -1593,12 +1916,14 @@
       <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,7 +1943,10 @@
         <f>SUM(E14:E23)</f>
         <v>100</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9">
+        <f>SUM(F14:F23)</f>
+        <v>0</v>
+      </c>
       <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>6</v>
@@ -1663,23 +1991,23 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1687,23 +2015,23 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
+      <c r="E29" s="1">
+        <v>5</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1711,23 +2039,23 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
+      <c r="E30" s="1">
+        <v>5</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,23 +2063,23 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
+      <c r="E31" s="1">
+        <v>5</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,23 +2087,23 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
+      <c r="E32" s="1">
+        <v>5</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,23 +2111,23 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>9</v>
+      <c r="E33" s="1">
+        <v>5</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,23 +2135,23 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
+      <c r="E34" s="1">
+        <v>5</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,23 +2159,23 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
+      <c r="E35" s="1">
+        <v>50</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,23 +2183,23 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
+      <c r="E36" s="1">
+        <v>20</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,23 +2207,23 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
+      <c r="E37" s="1">
+        <v>10</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,23 +2231,23 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
+      <c r="E38" s="1">
+        <v>20</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,23 +2255,23 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
+      <c r="E39" s="1">
+        <v>20</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,7 +2289,7 @@
       </c>
       <c r="E40" s="9">
         <f>SUM(E28:E39)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
@@ -1994,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>6</v>
@@ -2003,351 +2331,390 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
+      <c r="E44" s="1">
+        <v>10</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
+      <c r="E45" s="1">
+        <v>10</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
+      <c r="E46" s="1">
+        <v>10</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
+      <c r="E47" s="1">
+        <v>10</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
+      <c r="E48" s="1">
+        <v>10</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
+      <c r="E49" s="1">
+        <v>10</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="9">
-        <f>SUM(E44:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
+      <c r="E54" s="1">
+        <v>20</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
+      <c r="E55" s="1">
+        <v>20</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="9">
+        <f>SUM(E44:E55)</f>
+        <v>140</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1">
         <v>50</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="9">
-        <f>SUM(E54:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
+      <c r="E61" s="1">
+        <v>20</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -2357,144 +2724,136 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="9">
-        <f>SUM(E61:E61)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="62" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1">
+        <v>50</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="9">
+        <f>SUM(E60:E64)</f>
+        <v>160</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="F68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="1">
-        <v>100</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1">
-        <v>50</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>10</v>
@@ -2510,222 +2869,187 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="9">
-        <f>SUM(E66:E71)</f>
-        <v>150</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>50</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="9">
+        <f>SUM(E69:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="1">
-        <v>10</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="1">
-        <v>10</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="1">
-        <v>10</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="1">
-        <v>10</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -2737,19 +3061,19 @@
     </row>
     <row r="81" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -2761,19 +3085,19 @@
     </row>
     <row r="82" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
@@ -2785,19 +3109,19 @@
     </row>
     <row r="83" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
@@ -2808,119 +3132,119 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="9">
-        <f>SUM(E76:E83)</f>
-        <v>80</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1">
+        <v>20</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1">
+        <v>50</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="86" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="9">
+        <f>SUM(E80:E85)</f>
+        <v>320</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="F89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="1">
-        <v>10</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="1">
-        <v>10</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>10</v>
@@ -2938,13 +3262,13 @@
     </row>
     <row r="91" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>10</v>
@@ -2962,13 +3286,13 @@
     </row>
     <row r="92" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>10</v>
@@ -2986,13 +3310,13 @@
     </row>
     <row r="93" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>10</v>
@@ -3010,13 +3334,13 @@
     </row>
     <row r="94" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>10</v>
@@ -3034,13 +3358,13 @@
     </row>
     <row r="95" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>10</v>
@@ -3058,13 +3382,13 @@
     </row>
     <row r="96" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>10</v>
@@ -3081,95 +3405,95 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="9">
-        <f>SUM(E88:E96)</f>
-        <v>90</v>
-      </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
+      <c r="A97" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="9">
+        <f>SUM(E90:E97)</f>
+        <v>80</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G100" s="5" t="s">
+      <c r="F101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="1">
-        <v>20</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="57">
-        <v>43416</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>10</v>
@@ -3187,19 +3511,19 @@
     </row>
     <row r="103" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -3211,19 +3535,19 @@
     </row>
     <row r="104" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -3234,95 +3558,134 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="9">
-        <f>SUM(E101:E104)</f>
-        <v>150</v>
-      </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="107" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>83</v>
+      <c r="A107" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="1">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>7</v>
+      <c r="A108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>10</v>
@@ -3339,99 +3702,357 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="9">
+        <f>SUM(E102:E110)</f>
+        <v>90</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="1">
+        <v>20</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="28">
+        <v>43416</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="1">
+        <v>20</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1">
+        <v>100</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="9">
+        <f>SUM(E115:E118)</f>
+        <v>150</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1">
+        <v>50</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>10</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>20</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="1">
+      <c r="B126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="1">
         <v>20</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="F126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="1">
-        <v>20</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="1">
-        <v>10</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="9">
-        <f>SUM(E109:E113)</f>
+      <c r="B127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="1">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="9">
+        <f>SUM(E123:E127)</f>
         <v>110</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="9" t="s">
+      <c r="F128" s="9"/>
+      <c r="G128" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3441,25 +4062,4123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D6F81A-6003-4E60-80C0-C43642956D13}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B732F2-848D-4C4C-AD92-13E329449158}">
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="60">
+        <f>E11</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
+        <f>SUM(E5:E10)</f>
+        <v>160</v>
+      </c>
+      <c r="F11" s="9">
+        <f>SUM(F5:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="63">
+        <f>E25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9">
+        <f>SUM(E15:E24)</f>
+        <v>100</v>
+      </c>
+      <c r="F25" s="9">
+        <f>SUM(F15:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="65">
+        <f>E41</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="9">
+        <f>SUM(E29:E40)</f>
+        <v>155</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="71">
+        <f>E57</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="9">
+        <f>SUM(E45:E56)</f>
+        <v>140</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="71">
+        <f>E66</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1">
+        <v>50</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1">
+        <v>20</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>50</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="9">
+        <f>SUM(E61:E65)</f>
+        <v>160</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="72">
+        <f>E77</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>20</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>20</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1">
+        <v>50</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1">
+        <v>20</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="9">
+        <f>SUM(E70:E76)</f>
+        <v>170</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A79" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="73">
+        <f>E87</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="1">
+        <v>100</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1">
+        <v>50</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1">
+        <v>50</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1">
+        <v>50</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1">
+        <v>20</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1">
+        <v>50</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="9">
+        <f>SUM(E81:E86)</f>
+        <v>320</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A89" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="60">
+        <f>E99</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="1">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="1">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="9">
+        <f>SUM(E91:E98)</f>
+        <v>80</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A101" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="74">
+        <f>E112</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="1">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="1">
+        <v>10</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="1">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="9">
+        <f>SUM(E103:E111)</f>
+        <v>90</v>
+      </c>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A114" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="75">
+        <f>E120</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1">
+        <v>20</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="28">
+        <v>43416</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="1">
+        <v>10</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1">
+        <v>20</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="1">
+        <v>100</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="9">
+        <f>SUM(E116:E119)</f>
+        <v>150</v>
+      </c>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A122" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" s="63">
+        <f>E129</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>50</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="1">
+        <v>20</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="1">
+        <v>20</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="1">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="9">
+        <f>SUM(E124:E128)</f>
+        <v>110</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D6F81A-6003-4E60-80C0-C43642956D13}">
+  <dimension ref="A2:AO21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.09765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="77" customWidth="1"/>
+    <col min="3" max="4" width="3.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="3.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="77" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.3984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="11.19921875" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A2" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE2" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH2" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ2" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK2" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL2" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM2" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN2" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO2" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A3" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="79">
+        <v>16</v>
+      </c>
+      <c r="C3" s="79">
+        <v>16</v>
+      </c>
+      <c r="D3" s="79">
+        <v>16</v>
+      </c>
+      <c r="E3" s="79">
+        <v>16</v>
+      </c>
+      <c r="F3" s="79">
+        <v>16</v>
+      </c>
+      <c r="G3" s="79">
+        <v>16</v>
+      </c>
+      <c r="H3" s="79">
+        <v>16</v>
+      </c>
+      <c r="I3" s="79">
+        <v>16</v>
+      </c>
+      <c r="J3" s="79">
+        <v>16</v>
+      </c>
+      <c r="K3" s="79">
+        <v>16</v>
+      </c>
+      <c r="L3" s="79">
+        <v>16</v>
+      </c>
+      <c r="M3" s="79">
+        <v>16</v>
+      </c>
+      <c r="N3" s="79">
+        <v>16</v>
+      </c>
+      <c r="O3" s="79">
+        <v>16</v>
+      </c>
+      <c r="P3" s="79">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="79">
+        <v>16</v>
+      </c>
+      <c r="R3" s="79">
+        <v>16</v>
+      </c>
+      <c r="S3" s="79">
+        <v>16</v>
+      </c>
+      <c r="T3" s="79">
+        <v>16</v>
+      </c>
+      <c r="U3" s="79">
+        <v>16</v>
+      </c>
+      <c r="V3" s="79">
+        <v>16</v>
+      </c>
+      <c r="W3" s="79">
+        <v>16</v>
+      </c>
+      <c r="X3" s="79">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="79">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AK3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AL3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AN3" s="79">
+        <v>16</v>
+      </c>
+      <c r="AO3" s="79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A4" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="79">
+        <v>14</v>
+      </c>
+      <c r="C4" s="79">
+        <v>14</v>
+      </c>
+      <c r="D4" s="79">
+        <v>14</v>
+      </c>
+      <c r="E4" s="79">
+        <v>14</v>
+      </c>
+      <c r="F4" s="79">
+        <v>14</v>
+      </c>
+      <c r="G4" s="79">
+        <v>14</v>
+      </c>
+      <c r="H4" s="79">
+        <v>14</v>
+      </c>
+      <c r="I4" s="79">
+        <v>14</v>
+      </c>
+      <c r="J4" s="79">
+        <v>14</v>
+      </c>
+      <c r="K4" s="79">
+        <v>14</v>
+      </c>
+      <c r="L4" s="79">
+        <v>14</v>
+      </c>
+      <c r="M4" s="79">
+        <v>14</v>
+      </c>
+      <c r="N4" s="79">
+        <v>14</v>
+      </c>
+      <c r="O4" s="79">
+        <v>14</v>
+      </c>
+      <c r="P4" s="79">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="79">
+        <v>14</v>
+      </c>
+      <c r="R4" s="79">
+        <v>14</v>
+      </c>
+      <c r="S4" s="79">
+        <v>14</v>
+      </c>
+      <c r="T4" s="79">
+        <v>14</v>
+      </c>
+      <c r="U4" s="79">
+        <v>14</v>
+      </c>
+      <c r="V4" s="79">
+        <v>14</v>
+      </c>
+      <c r="W4" s="79">
+        <v>14</v>
+      </c>
+      <c r="X4" s="79">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="79">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AL4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="79">
+        <v>14</v>
+      </c>
+      <c r="AO4" s="79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A5" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="79">
+        <v>12</v>
+      </c>
+      <c r="C5" s="79">
+        <v>12</v>
+      </c>
+      <c r="D5" s="79">
+        <v>12</v>
+      </c>
+      <c r="E5" s="79">
+        <v>12</v>
+      </c>
+      <c r="F5" s="79">
+        <v>12</v>
+      </c>
+      <c r="G5" s="79">
+        <v>12</v>
+      </c>
+      <c r="H5" s="79">
+        <v>12</v>
+      </c>
+      <c r="I5" s="79">
+        <v>12</v>
+      </c>
+      <c r="J5" s="79">
+        <v>12</v>
+      </c>
+      <c r="K5" s="79">
+        <v>12</v>
+      </c>
+      <c r="L5" s="79">
+        <v>12</v>
+      </c>
+      <c r="M5" s="79">
+        <v>12</v>
+      </c>
+      <c r="N5" s="79">
+        <v>12</v>
+      </c>
+      <c r="O5" s="79">
+        <v>12</v>
+      </c>
+      <c r="P5" s="79">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="79">
+        <v>12</v>
+      </c>
+      <c r="R5" s="79">
+        <v>12</v>
+      </c>
+      <c r="S5" s="79">
+        <v>12</v>
+      </c>
+      <c r="T5" s="79">
+        <v>12</v>
+      </c>
+      <c r="U5" s="79">
+        <v>12</v>
+      </c>
+      <c r="V5" s="79">
+        <v>12</v>
+      </c>
+      <c r="W5" s="79">
+        <v>12</v>
+      </c>
+      <c r="X5" s="79">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="79">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="79">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="B6" s="80">
+        <f>SUM(B3:B5)</f>
+        <v>42</v>
+      </c>
+      <c r="C6" s="80">
+        <f t="shared" ref="C6:P6" si="0">SUM(C3:C5)</f>
+        <v>42</v>
+      </c>
+      <c r="D6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="L6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="N6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P6" s="80">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q6" s="80">
+        <f t="shared" ref="Q6" si="1">SUM(Q3:Q5)</f>
+        <v>42</v>
+      </c>
+      <c r="R6" s="80">
+        <f t="shared" ref="R6" si="2">SUM(R3:R5)</f>
+        <v>42</v>
+      </c>
+      <c r="S6" s="80">
+        <f t="shared" ref="S6" si="3">SUM(S3:S5)</f>
+        <v>42</v>
+      </c>
+      <c r="T6" s="80">
+        <f t="shared" ref="T6" si="4">SUM(T3:T5)</f>
+        <v>42</v>
+      </c>
+      <c r="U6" s="80">
+        <f t="shared" ref="U6" si="5">SUM(U3:U5)</f>
+        <v>42</v>
+      </c>
+      <c r="V6" s="80">
+        <f t="shared" ref="V6" si="6">SUM(V3:V5)</f>
+        <v>42</v>
+      </c>
+      <c r="W6" s="80">
+        <f t="shared" ref="W6" si="7">SUM(W3:W5)</f>
+        <v>42</v>
+      </c>
+      <c r="X6" s="80">
+        <f t="shared" ref="X6" si="8">SUM(X3:X5)</f>
+        <v>42</v>
+      </c>
+      <c r="Y6" s="80">
+        <f t="shared" ref="Y6" si="9">SUM(Y3:Y5)</f>
+        <v>42</v>
+      </c>
+      <c r="Z6" s="80">
+        <f t="shared" ref="Z6" si="10">SUM(Z3:Z5)</f>
+        <v>42</v>
+      </c>
+      <c r="AA6" s="80">
+        <f t="shared" ref="AA6" si="11">SUM(AA3:AA5)</f>
+        <v>42</v>
+      </c>
+      <c r="AB6" s="80">
+        <f t="shared" ref="AB6" si="12">SUM(AB3:AB5)</f>
+        <v>42</v>
+      </c>
+      <c r="AC6" s="80">
+        <f t="shared" ref="AC6" si="13">SUM(AC3:AC5)</f>
+        <v>42</v>
+      </c>
+      <c r="AD6" s="80">
+        <f t="shared" ref="AD6" si="14">SUM(AD3:AD5)</f>
+        <v>42</v>
+      </c>
+      <c r="AE6" s="80">
+        <f t="shared" ref="AE6" si="15">SUM(AE3:AE5)</f>
+        <v>42</v>
+      </c>
+      <c r="AF6" s="80">
+        <f t="shared" ref="AF6" si="16">SUM(AF3:AF5)</f>
+        <v>42</v>
+      </c>
+      <c r="AG6" s="80">
+        <f t="shared" ref="AG6" si="17">SUM(AG3:AG5)</f>
+        <v>42</v>
+      </c>
+      <c r="AH6" s="80">
+        <f t="shared" ref="AH6" si="18">SUM(AH3:AH5)</f>
+        <v>42</v>
+      </c>
+      <c r="AI6" s="80">
+        <f t="shared" ref="AI6" si="19">SUM(AI3:AI5)</f>
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="80">
+        <f t="shared" ref="AJ6" si="20">SUM(AJ3:AJ5)</f>
+        <v>42</v>
+      </c>
+      <c r="AK6" s="80">
+        <f t="shared" ref="AK6" si="21">SUM(AK3:AK5)</f>
+        <v>42</v>
+      </c>
+      <c r="AL6" s="80">
+        <f t="shared" ref="AL6" si="22">SUM(AL3:AL5)</f>
+        <v>42</v>
+      </c>
+      <c r="AM6" s="80">
+        <f t="shared" ref="AM6" si="23">SUM(AM3:AM5)</f>
+        <v>42</v>
+      </c>
+      <c r="AN6" s="80">
+        <f t="shared" ref="AN6" si="24">SUM(AN3:AN5)</f>
+        <v>42</v>
+      </c>
+      <c r="AO6" s="80">
+        <f t="shared" ref="AO6" si="25">SUM(AO3:AO5)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A9" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="R9" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="T9" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="U9" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="W9" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="X9" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y9" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z9" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA9" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB9" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC9" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE9" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG9" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH9" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI9" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ9" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK9" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL9" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM9" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN9" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO9" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A10" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="79">
+        <v>0</v>
+      </c>
+      <c r="C10" s="79">
+        <v>0</v>
+      </c>
+      <c r="D10" s="79">
+        <v>0</v>
+      </c>
+      <c r="E10" s="79">
+        <v>0</v>
+      </c>
+      <c r="F10" s="79">
+        <v>0</v>
+      </c>
+      <c r="G10" s="79">
+        <v>0</v>
+      </c>
+      <c r="H10" s="79">
+        <v>0</v>
+      </c>
+      <c r="I10" s="79">
+        <v>0</v>
+      </c>
+      <c r="J10" s="79">
+        <v>0</v>
+      </c>
+      <c r="K10" s="79">
+        <v>0</v>
+      </c>
+      <c r="L10" s="79">
+        <v>0</v>
+      </c>
+      <c r="M10" s="79">
+        <v>0</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="79">
+        <v>0</v>
+      </c>
+      <c r="P10" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="79">
+        <v>0</v>
+      </c>
+      <c r="R10" s="79">
+        <v>0</v>
+      </c>
+      <c r="S10" s="79">
+        <v>0</v>
+      </c>
+      <c r="T10" s="79">
+        <v>0</v>
+      </c>
+      <c r="U10" s="79">
+        <v>0</v>
+      </c>
+      <c r="V10" s="79">
+        <v>0</v>
+      </c>
+      <c r="W10" s="79">
+        <v>0</v>
+      </c>
+      <c r="X10" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="79">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A11" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="79">
+        <v>0</v>
+      </c>
+      <c r="C11" s="79">
+        <v>0</v>
+      </c>
+      <c r="D11" s="79">
+        <v>0</v>
+      </c>
+      <c r="E11" s="79">
+        <v>0</v>
+      </c>
+      <c r="F11" s="79">
+        <v>0</v>
+      </c>
+      <c r="G11" s="79">
+        <v>0</v>
+      </c>
+      <c r="H11" s="79">
+        <v>0</v>
+      </c>
+      <c r="I11" s="79">
+        <v>0</v>
+      </c>
+      <c r="J11" s="79">
+        <v>0</v>
+      </c>
+      <c r="K11" s="79">
+        <v>0</v>
+      </c>
+      <c r="L11" s="79">
+        <v>0</v>
+      </c>
+      <c r="M11" s="79">
+        <v>0</v>
+      </c>
+      <c r="N11" s="79">
+        <v>0</v>
+      </c>
+      <c r="O11" s="79">
+        <v>0</v>
+      </c>
+      <c r="P11" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="79">
+        <v>0</v>
+      </c>
+      <c r="R11" s="79">
+        <v>0</v>
+      </c>
+      <c r="S11" s="79">
+        <v>0</v>
+      </c>
+      <c r="T11" s="79">
+        <v>0</v>
+      </c>
+      <c r="U11" s="79">
+        <v>0</v>
+      </c>
+      <c r="V11" s="79">
+        <v>0</v>
+      </c>
+      <c r="W11" s="79">
+        <v>0</v>
+      </c>
+      <c r="X11" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A12" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="79">
+        <v>0</v>
+      </c>
+      <c r="C12" s="79">
+        <v>0</v>
+      </c>
+      <c r="D12" s="79">
+        <v>0</v>
+      </c>
+      <c r="E12" s="79">
+        <v>0</v>
+      </c>
+      <c r="F12" s="79">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79">
+        <v>0</v>
+      </c>
+      <c r="H12" s="79">
+        <v>0</v>
+      </c>
+      <c r="I12" s="79">
+        <v>0</v>
+      </c>
+      <c r="J12" s="79">
+        <v>0</v>
+      </c>
+      <c r="K12" s="79">
+        <v>0</v>
+      </c>
+      <c r="L12" s="79">
+        <v>0</v>
+      </c>
+      <c r="M12" s="79">
+        <v>0</v>
+      </c>
+      <c r="N12" s="79">
+        <v>0</v>
+      </c>
+      <c r="O12" s="79">
+        <v>0</v>
+      </c>
+      <c r="P12" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="79">
+        <v>0</v>
+      </c>
+      <c r="R12" s="79">
+        <v>0</v>
+      </c>
+      <c r="S12" s="79">
+        <v>0</v>
+      </c>
+      <c r="T12" s="79">
+        <v>0</v>
+      </c>
+      <c r="U12" s="79">
+        <v>0</v>
+      </c>
+      <c r="V12" s="79">
+        <v>0</v>
+      </c>
+      <c r="W12" s="79">
+        <v>0</v>
+      </c>
+      <c r="X12" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="79">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A13" s="78"/>
+      <c r="B13" s="80">
+        <f>SUM(B10:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="80">
+        <f t="shared" ref="C13:AO13" si="26">SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A15" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="79">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A16" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="81">
+        <f>B15/B6</f>
+        <v>38.928571428571431</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="82"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="82"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A78DD-01CF-43AE-A4FF-89A178F49567}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3483,33 +8202,33 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="22"/>
-      <c r="C3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="C3" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="23"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="56"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -3517,144 +8236,144 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
-      <c r="C5" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="43" t="s">
+      <c r="C5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>102</v>
+      <c r="M5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="O5" s="24"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="24"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -3662,15 +8381,15 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -3678,15 +8397,15 @@
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -3694,15 +8413,15 @@
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="24"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -3710,15 +8429,15 @@
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3726,29 +8445,29 @@
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="D18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
@@ -3758,13 +8477,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
@@ -3774,13 +8493,13 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -3790,13 +8509,13 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -3806,13 +8525,13 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -3822,13 +8541,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -3838,13 +8557,13 @@
     <row r="24" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
@@ -3901,11 +8620,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3741BDA-2F36-47FA-87E1-D1537F9BFEAA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Breaker - Project Planner.xlsx
+++ b/Breaker - Project Planner.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\OneDrive\Documents\GitHub\BKR-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{4303B239-3FA2-4C98-87AE-8B9437A60FE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{75754BD1-5250-4B78-B432-C020A99D3B21}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{4303B239-3FA2-4C98-87AE-8B9437A60FE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{76516AEF-A9DD-48BC-8B53-A70487C8EE45}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backup" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Project Planner" sheetId="5" r:id="rId2"/>
     <sheet name="Team Manpower" sheetId="4" r:id="rId3"/>
     <sheet name="Equipment-Parts" sheetId="2" r:id="rId4"/>
-    <sheet name="User Interface" sheetId="3" r:id="rId5"/>
+    <sheet name="HitPoints Equipment - Parts" sheetId="6" r:id="rId5"/>
+    <sheet name="User Interface" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="170">
   <si>
     <t>Abilities System</t>
   </si>
@@ -536,6 +537,12 @@
   </si>
   <si>
     <t>W40</t>
+  </si>
+  <si>
+    <t>Total Funding</t>
+  </si>
+  <si>
+    <t>Chonky</t>
   </si>
 </sst>
 </file>
@@ -919,6 +926,82 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,82 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4063,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B732F2-848D-4C4C-AD92-13E329449158}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4089,41 +4096,41 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="60">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31">
         <f>E11</f>
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4227,7 +4234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4307,43 +4314,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="34">
         <f>E25</f>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -4395,7 +4401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4499,7 +4505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -4525,7 +4531,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4631,43 +4637,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="36">
         <f>E41</f>
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -4683,7 +4688,9 @@
       <c r="E29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>121</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -4707,7 +4714,9 @@
       <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>121</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -4731,7 +4740,9 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>121</v>
       </c>
@@ -4739,7 +4750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -4755,7 +4766,9 @@
       <c r="E32" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>121</v>
       </c>
@@ -4763,7 +4776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4779,7 +4792,9 @@
       <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>121</v>
       </c>
@@ -4787,7 +4802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -4803,7 +4818,9 @@
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>121</v>
       </c>
@@ -4811,7 +4828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4827,7 +4844,9 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>121</v>
       </c>
@@ -4835,7 +4854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -4851,7 +4870,9 @@
       <c r="E36" s="1">
         <v>50</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>121</v>
       </c>
@@ -4859,7 +4880,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -4875,7 +4896,9 @@
       <c r="E37" s="1">
         <v>20</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>121</v>
       </c>
@@ -4883,7 +4906,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -4899,7 +4922,9 @@
       <c r="E38" s="1">
         <v>10</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>121</v>
       </c>
@@ -4907,7 +4932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4923,7 +4948,9 @@
       <c r="E39" s="1">
         <v>20</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>121</v>
       </c>
@@ -4931,7 +4958,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -4947,7 +4974,9 @@
       <c r="E40" s="1">
         <v>20</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>121</v>
       </c>
@@ -4955,7 +4984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -4980,43 +5009,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71">
+      <c r="B43" s="42">
         <f>E57</f>
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
+    <row r="44" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -5032,7 +5060,9 @@
       <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>121</v>
       </c>
@@ -5040,7 +5070,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
@@ -5056,7 +5086,9 @@
       <c r="E46" s="1">
         <v>10</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>121</v>
       </c>
@@ -5064,7 +5096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
@@ -5080,7 +5112,9 @@
       <c r="E47" s="1">
         <v>10</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>121</v>
       </c>
@@ -5088,7 +5122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>108</v>
       </c>
@@ -5104,7 +5138,9 @@
       <c r="E48" s="1">
         <v>10</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>121</v>
       </c>
@@ -5112,7 +5148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -5128,7 +5164,9 @@
       <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>121</v>
       </c>
@@ -5136,7 +5174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
@@ -5152,7 +5190,9 @@
       <c r="E50" s="1">
         <v>10</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>121</v>
       </c>
@@ -5160,7 +5200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>111</v>
       </c>
@@ -5176,7 +5216,9 @@
       <c r="E51" s="1">
         <v>10</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>121</v>
       </c>
@@ -5184,7 +5226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -5200,7 +5242,9 @@
       <c r="E52" s="1">
         <v>10</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>121</v>
       </c>
@@ -5208,7 +5252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -5224,7 +5268,9 @@
       <c r="E53" s="1">
         <v>10</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>121</v>
       </c>
@@ -5232,7 +5278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
@@ -5248,7 +5294,9 @@
       <c r="E54" s="1">
         <v>10</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
       <c r="G54" s="1" t="s">
         <v>121</v>
       </c>
@@ -5256,7 +5304,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
@@ -5272,7 +5320,9 @@
       <c r="E55" s="1">
         <v>20</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>121</v>
       </c>
@@ -5280,7 +5330,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
@@ -5296,7 +5346,9 @@
       <c r="E56" s="1">
         <v>20</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>121</v>
       </c>
@@ -5304,7 +5356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5329,17 +5381,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="71">
+      <c r="B59" s="42">
         <f>E66</f>
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>1</v>
       </c>
@@ -5365,7 +5416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -5381,15 +5432,17 @@
       <c r="E61" s="1">
         <v>50</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
       <c r="G61" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>49</v>
       </c>
@@ -5405,15 +5458,17 @@
       <c r="E62" s="1">
         <v>20</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
       <c r="G62" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>114</v>
       </c>
@@ -5429,11 +5484,17 @@
       <c r="E63" s="1">
         <v>20</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
@@ -5449,15 +5510,17 @@
       <c r="E64" s="1">
         <v>50</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>113</v>
       </c>
@@ -5473,11 +5536,17 @@
       <c r="E65" s="1">
         <v>20</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5502,17 +5571,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="72">
+      <c r="B68" s="43">
         <f>E77</f>
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +5606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
@@ -5554,15 +5622,17 @@
       <c r="E70" s="1">
         <v>20</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>115</v>
       </c>
@@ -5578,11 +5648,17 @@
       <c r="E71" s="1">
         <v>20</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>116</v>
       </c>
@@ -5598,11 +5674,17 @@
       <c r="E72" s="1">
         <v>20</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>117</v>
       </c>
@@ -5618,11 +5700,17 @@
       <c r="E73" s="1">
         <v>20</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>118</v>
       </c>
@@ -5638,11 +5726,17 @@
       <c r="E74" s="1">
         <v>20</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>122</v>
       </c>
@@ -5658,11 +5752,17 @@
       <c r="E75" s="1">
         <v>50</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>123</v>
       </c>
@@ -5678,11 +5778,17 @@
       <c r="E76" s="1">
         <v>20</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5704,17 +5810,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="73">
+      <c r="B79" s="44">
         <f>E87</f>
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>1</v>
       </c>
@@ -5740,12 +5845,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>121</v>
@@ -5756,15 +5861,17 @@
       <c r="E81" s="1">
         <v>100</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
       <c r="G81" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>55</v>
       </c>
@@ -5780,15 +5887,17 @@
       <c r="E82" s="1">
         <v>50</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
       <c r="G82" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -5804,15 +5913,17 @@
       <c r="E83" s="1">
         <v>50</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
       <c r="G83" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>57</v>
       </c>
@@ -5828,15 +5939,17 @@
       <c r="E84" s="1">
         <v>50</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
       <c r="G84" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
@@ -5852,15 +5965,17 @@
       <c r="E85" s="1">
         <v>20</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
       <c r="G85" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>59</v>
       </c>
@@ -5876,15 +5991,17 @@
       <c r="E86" s="1">
         <v>50</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -5909,17 +6026,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A89" s="61" t="s">
+      <c r="A89" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="60">
+      <c r="B89" s="31">
         <f>E99</f>
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>1</v>
       </c>
@@ -5945,7 +6061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>60</v>
       </c>
@@ -5961,15 +6077,17 @@
       <c r="E91" s="1">
         <v>10</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
       <c r="G91" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>61</v>
       </c>
@@ -5985,15 +6103,17 @@
       <c r="E92" s="1">
         <v>10</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
       <c r="G92" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>62</v>
       </c>
@@ -6009,15 +6129,17 @@
       <c r="E93" s="1">
         <v>10</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
       <c r="G93" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>63</v>
       </c>
@@ -6033,15 +6155,17 @@
       <c r="E94" s="1">
         <v>10</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
       <c r="G94" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>64</v>
       </c>
@@ -6057,15 +6181,17 @@
       <c r="E95" s="1">
         <v>10</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
       <c r="G95" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>65</v>
       </c>
@@ -6081,15 +6207,17 @@
       <c r="E96" s="1">
         <v>10</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
       <c r="G96" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>66</v>
       </c>
@@ -6105,15 +6233,17 @@
       <c r="E97" s="1">
         <v>10</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
       <c r="G97" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>67</v>
       </c>
@@ -6129,15 +6259,17 @@
       <c r="E98" s="1">
         <v>10</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
       <c r="G98" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -6162,17 +6294,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="74">
+      <c r="B101" s="45">
         <f>E112</f>
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>69</v>
       </c>
@@ -6214,15 +6345,17 @@
       <c r="E103" s="1">
         <v>10</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
       <c r="G103" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>70</v>
       </c>
@@ -6238,15 +6371,17 @@
       <c r="E104" s="1">
         <v>10</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
       <c r="G104" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>71</v>
       </c>
@@ -6262,15 +6397,17 @@
       <c r="E105" s="1">
         <v>10</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
       <c r="G105" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>72</v>
       </c>
@@ -6286,15 +6423,17 @@
       <c r="E106" s="1">
         <v>10</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
       <c r="G106" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>51</v>
       </c>
@@ -6310,15 +6449,17 @@
       <c r="E107" s="1">
         <v>10</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
       <c r="G107" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>73</v>
       </c>
@@ -6334,15 +6475,17 @@
       <c r="E108" s="1">
         <v>10</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
       <c r="G108" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>74</v>
       </c>
@@ -6358,15 +6501,17 @@
       <c r="E109" s="1">
         <v>10</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
       <c r="G109" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>27</v>
       </c>
@@ -6382,15 +6527,17 @@
       <c r="E110" s="1">
         <v>10</v>
       </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
       <c r="G110" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>75</v>
       </c>
@@ -6406,15 +6553,17 @@
       <c r="E111" s="1">
         <v>10</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
       <c r="G111" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -6439,17 +6588,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A114" s="70" t="s">
+      <c r="A114" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="75">
+      <c r="B114" s="46">
         <f>E120</f>
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>1</v>
       </c>
@@ -6475,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>77</v>
       </c>
@@ -6491,15 +6639,17 @@
       <c r="E116" s="1">
         <v>20</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="28">
-        <v>43416</v>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>79</v>
       </c>
@@ -6515,15 +6665,17 @@
       <c r="E117" s="1">
         <v>10</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
       <c r="G117" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>80</v>
       </c>
@@ -6539,15 +6691,17 @@
       <c r="E118" s="1">
         <v>20</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
       <c r="G118" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>81</v>
       </c>
@@ -6563,15 +6717,17 @@
       <c r="E119" s="1">
         <v>100</v>
       </c>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
       <c r="G119" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -6596,17 +6752,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A122" s="62" t="s">
+      <c r="A122" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B122" s="63">
+      <c r="B122" s="34">
         <f>E129</f>
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>1</v>
       </c>
@@ -6632,12 +6787,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>121</v>
@@ -6648,20 +6803,22 @@
       <c r="E124" s="1">
         <v>50</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
       <c r="G124" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>121</v>
@@ -6672,20 +6829,22 @@
       <c r="E125" s="1">
         <v>10</v>
       </c>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
       <c r="G125" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>121</v>
@@ -6696,20 +6855,22 @@
       <c r="E126" s="1">
         <v>20</v>
       </c>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
       <c r="G126" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>121</v>
@@ -6720,20 +6881,22 @@
       <c r="E127" s="1">
         <v>20</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
       <c r="G127" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>121</v>
@@ -6744,15 +6907,17 @@
       <c r="E128" s="1">
         <v>10</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
       <c r="G128" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="14.4" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14.4" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -6777,7 +6942,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6787,1385 +6951,1393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D6F81A-6003-4E60-80C0-C43642956D13}">
   <dimension ref="A2:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.59765625" style="77" customWidth="1"/>
-    <col min="3" max="4" width="3.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.69921875" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="3.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" style="77" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.3984375" style="77" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.69921875" style="77" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.69921875" style="77" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="4.59765625" style="77" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.69921875" style="77" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="11.19921875" style="77"/>
+    <col min="1" max="1" width="12.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.69921875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="3.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.3984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.69921875" style="48" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="4.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.69921875" style="48" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="4.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.69921875" style="48" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="11.19921875" style="48"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="T2" s="76" t="s">
+      <c r="T2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="U2" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="76" t="s">
+      <c r="V2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AA2" s="76" t="s">
+      <c r="AA2" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="76" t="s">
+      <c r="AB2" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="AE2" s="76" t="s">
+      <c r="AE2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="AF2" s="76" t="s">
+      <c r="AF2" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="AG2" s="76" t="s">
+      <c r="AG2" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="AH2" s="76" t="s">
+      <c r="AH2" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="AI2" s="76" t="s">
+      <c r="AI2" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="AJ2" s="76" t="s">
+      <c r="AJ2" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AK2" s="76" t="s">
+      <c r="AK2" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="AL2" s="76" t="s">
+      <c r="AL2" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AM2" s="76" t="s">
+      <c r="AM2" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AN2" s="76" t="s">
+      <c r="AN2" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="AO2" s="76" t="s">
+      <c r="AO2" s="47" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="50">
         <v>16</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="50">
         <v>16</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="50">
         <v>16</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="50">
         <v>16</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="50">
         <v>16</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="50">
         <v>16</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="50">
         <v>16</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="50">
         <v>16</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="50">
         <v>16</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="50">
         <v>16</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="50">
         <v>16</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="50">
         <v>16</v>
       </c>
-      <c r="N3" s="79">
+      <c r="N3" s="50">
         <v>16</v>
       </c>
-      <c r="O3" s="79">
+      <c r="O3" s="50">
         <v>16</v>
       </c>
-      <c r="P3" s="79">
+      <c r="P3" s="50">
         <v>16</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="Q3" s="50">
         <v>16</v>
       </c>
-      <c r="R3" s="79">
+      <c r="R3" s="50">
         <v>16</v>
       </c>
-      <c r="S3" s="79">
+      <c r="S3" s="50">
         <v>16</v>
       </c>
-      <c r="T3" s="79">
+      <c r="T3" s="50">
         <v>16</v>
       </c>
-      <c r="U3" s="79">
+      <c r="U3" s="50">
         <v>16</v>
       </c>
-      <c r="V3" s="79">
+      <c r="V3" s="50">
         <v>16</v>
       </c>
-      <c r="W3" s="79">
+      <c r="W3" s="50">
         <v>16</v>
       </c>
-      <c r="X3" s="79">
+      <c r="X3" s="50">
         <v>16</v>
       </c>
-      <c r="Y3" s="79">
+      <c r="Y3" s="50">
         <v>16</v>
       </c>
-      <c r="Z3" s="79">
+      <c r="Z3" s="50">
         <v>16</v>
       </c>
-      <c r="AA3" s="79">
+      <c r="AA3" s="50">
         <v>16</v>
       </c>
-      <c r="AB3" s="79">
+      <c r="AB3" s="50">
         <v>16</v>
       </c>
-      <c r="AC3" s="79">
+      <c r="AC3" s="50">
         <v>16</v>
       </c>
-      <c r="AD3" s="79">
+      <c r="AD3" s="50">
         <v>16</v>
       </c>
-      <c r="AE3" s="79">
+      <c r="AE3" s="50">
         <v>16</v>
       </c>
-      <c r="AF3" s="79">
+      <c r="AF3" s="50">
         <v>16</v>
       </c>
-      <c r="AG3" s="79">
+      <c r="AG3" s="50">
         <v>16</v>
       </c>
-      <c r="AH3" s="79">
+      <c r="AH3" s="50">
         <v>16</v>
       </c>
-      <c r="AI3" s="79">
+      <c r="AI3" s="50">
         <v>16</v>
       </c>
-      <c r="AJ3" s="79">
+      <c r="AJ3" s="50">
         <v>16</v>
       </c>
-      <c r="AK3" s="79">
+      <c r="AK3" s="50">
         <v>16</v>
       </c>
-      <c r="AL3" s="79">
+      <c r="AL3" s="50">
         <v>16</v>
       </c>
-      <c r="AM3" s="79">
+      <c r="AM3" s="50">
         <v>16</v>
       </c>
-      <c r="AN3" s="79">
+      <c r="AN3" s="50">
         <v>16</v>
       </c>
-      <c r="AO3" s="79">
+      <c r="AO3" s="50">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="50">
         <v>14</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="50">
         <v>14</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="50">
         <v>14</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="50">
         <v>14</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="50">
         <v>14</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="50">
         <v>14</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="50">
         <v>14</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="50">
         <v>14</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="50">
         <v>14</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="50">
         <v>14</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="50">
         <v>14</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="50">
         <v>14</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="50">
         <v>14</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="50">
         <v>14</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="50">
         <v>14</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="50">
         <v>14</v>
       </c>
-      <c r="R4" s="79">
+      <c r="R4" s="50">
         <v>14</v>
       </c>
-      <c r="S4" s="79">
+      <c r="S4" s="50">
         <v>14</v>
       </c>
-      <c r="T4" s="79">
+      <c r="T4" s="50">
         <v>14</v>
       </c>
-      <c r="U4" s="79">
+      <c r="U4" s="50">
         <v>14</v>
       </c>
-      <c r="V4" s="79">
+      <c r="V4" s="50">
         <v>14</v>
       </c>
-      <c r="W4" s="79">
+      <c r="W4" s="50">
         <v>14</v>
       </c>
-      <c r="X4" s="79">
+      <c r="X4" s="50">
         <v>14</v>
       </c>
-      <c r="Y4" s="79">
+      <c r="Y4" s="50">
         <v>14</v>
       </c>
-      <c r="Z4" s="79">
+      <c r="Z4" s="50">
         <v>14</v>
       </c>
-      <c r="AA4" s="79">
+      <c r="AA4" s="50">
         <v>14</v>
       </c>
-      <c r="AB4" s="79">
+      <c r="AB4" s="50">
         <v>14</v>
       </c>
-      <c r="AC4" s="79">
+      <c r="AC4" s="50">
         <v>14</v>
       </c>
-      <c r="AD4" s="79">
+      <c r="AD4" s="50">
         <v>14</v>
       </c>
-      <c r="AE4" s="79">
+      <c r="AE4" s="50">
         <v>14</v>
       </c>
-      <c r="AF4" s="79">
+      <c r="AF4" s="50">
         <v>14</v>
       </c>
-      <c r="AG4" s="79">
+      <c r="AG4" s="50">
         <v>14</v>
       </c>
-      <c r="AH4" s="79">
+      <c r="AH4" s="50">
         <v>14</v>
       </c>
-      <c r="AI4" s="79">
+      <c r="AI4" s="50">
         <v>14</v>
       </c>
-      <c r="AJ4" s="79">
+      <c r="AJ4" s="50">
         <v>14</v>
       </c>
-      <c r="AK4" s="79">
+      <c r="AK4" s="50">
         <v>14</v>
       </c>
-      <c r="AL4" s="79">
+      <c r="AL4" s="50">
         <v>14</v>
       </c>
-      <c r="AM4" s="79">
+      <c r="AM4" s="50">
         <v>14</v>
       </c>
-      <c r="AN4" s="79">
+      <c r="AN4" s="50">
         <v>14</v>
       </c>
-      <c r="AO4" s="79">
+      <c r="AO4" s="50">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="50">
         <v>12</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="50">
         <v>12</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="50">
         <v>12</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="50">
         <v>12</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="50">
         <v>12</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="50">
         <v>12</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="50">
         <v>12</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="50">
         <v>12</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="50">
         <v>12</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="50">
         <v>12</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="50">
         <v>12</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="50">
         <v>12</v>
       </c>
-      <c r="N5" s="79">
+      <c r="N5" s="50">
         <v>12</v>
       </c>
-      <c r="O5" s="79">
+      <c r="O5" s="50">
         <v>12</v>
       </c>
-      <c r="P5" s="79">
+      <c r="P5" s="50">
         <v>12</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="50">
         <v>12</v>
       </c>
-      <c r="R5" s="79">
+      <c r="R5" s="50">
         <v>12</v>
       </c>
-      <c r="S5" s="79">
+      <c r="S5" s="50">
         <v>12</v>
       </c>
-      <c r="T5" s="79">
+      <c r="T5" s="50">
         <v>12</v>
       </c>
-      <c r="U5" s="79">
+      <c r="U5" s="50">
         <v>12</v>
       </c>
-      <c r="V5" s="79">
+      <c r="V5" s="50">
         <v>12</v>
       </c>
-      <c r="W5" s="79">
+      <c r="W5" s="50">
         <v>12</v>
       </c>
-      <c r="X5" s="79">
+      <c r="X5" s="50">
         <v>12</v>
       </c>
-      <c r="Y5" s="79">
+      <c r="Y5" s="50">
         <v>12</v>
       </c>
-      <c r="Z5" s="79">
+      <c r="Z5" s="50">
         <v>12</v>
       </c>
-      <c r="AA5" s="79">
+      <c r="AA5" s="50">
         <v>12</v>
       </c>
-      <c r="AB5" s="79">
+      <c r="AB5" s="50">
         <v>12</v>
       </c>
-      <c r="AC5" s="79">
+      <c r="AC5" s="50">
         <v>12</v>
       </c>
-      <c r="AD5" s="79">
+      <c r="AD5" s="50">
         <v>12</v>
       </c>
-      <c r="AE5" s="79">
+      <c r="AE5" s="50">
         <v>12</v>
       </c>
-      <c r="AF5" s="79">
+      <c r="AF5" s="50">
         <v>12</v>
       </c>
-      <c r="AG5" s="79">
+      <c r="AG5" s="50">
         <v>12</v>
       </c>
-      <c r="AH5" s="79">
+      <c r="AH5" s="50">
         <v>12</v>
       </c>
-      <c r="AI5" s="79">
+      <c r="AI5" s="50">
         <v>12</v>
       </c>
-      <c r="AJ5" s="79">
+      <c r="AJ5" s="50">
         <v>12</v>
       </c>
-      <c r="AK5" s="79">
+      <c r="AK5" s="50">
         <v>12</v>
       </c>
-      <c r="AL5" s="79">
+      <c r="AL5" s="50">
         <v>12</v>
       </c>
-      <c r="AM5" s="79">
+      <c r="AM5" s="50">
         <v>12</v>
       </c>
-      <c r="AN5" s="79">
+      <c r="AN5" s="50">
         <v>12</v>
       </c>
-      <c r="AO5" s="79">
+      <c r="AO5" s="50">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="B6" s="80">
+      <c r="B6" s="51">
         <f>SUM(B3:B5)</f>
         <v>42</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="51">
         <f t="shared" ref="C6:P6" si="0">SUM(C3:C5)</f>
         <v>42</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L6" s="80">
+      <c r="L6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="N6" s="80">
+      <c r="N6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="Q6" s="80">
+      <c r="Q6" s="51">
         <f t="shared" ref="Q6" si="1">SUM(Q3:Q5)</f>
         <v>42</v>
       </c>
-      <c r="R6" s="80">
+      <c r="R6" s="51">
         <f t="shared" ref="R6" si="2">SUM(R3:R5)</f>
         <v>42</v>
       </c>
-      <c r="S6" s="80">
+      <c r="S6" s="51">
         <f t="shared" ref="S6" si="3">SUM(S3:S5)</f>
         <v>42</v>
       </c>
-      <c r="T6" s="80">
+      <c r="T6" s="51">
         <f t="shared" ref="T6" si="4">SUM(T3:T5)</f>
         <v>42</v>
       </c>
-      <c r="U6" s="80">
+      <c r="U6" s="51">
         <f t="shared" ref="U6" si="5">SUM(U3:U5)</f>
         <v>42</v>
       </c>
-      <c r="V6" s="80">
+      <c r="V6" s="51">
         <f t="shared" ref="V6" si="6">SUM(V3:V5)</f>
         <v>42</v>
       </c>
-      <c r="W6" s="80">
+      <c r="W6" s="51">
         <f t="shared" ref="W6" si="7">SUM(W3:W5)</f>
         <v>42</v>
       </c>
-      <c r="X6" s="80">
+      <c r="X6" s="51">
         <f t="shared" ref="X6" si="8">SUM(X3:X5)</f>
         <v>42</v>
       </c>
-      <c r="Y6" s="80">
+      <c r="Y6" s="51">
         <f t="shared" ref="Y6" si="9">SUM(Y3:Y5)</f>
         <v>42</v>
       </c>
-      <c r="Z6" s="80">
+      <c r="Z6" s="51">
         <f t="shared" ref="Z6" si="10">SUM(Z3:Z5)</f>
         <v>42</v>
       </c>
-      <c r="AA6" s="80">
+      <c r="AA6" s="51">
         <f t="shared" ref="AA6" si="11">SUM(AA3:AA5)</f>
         <v>42</v>
       </c>
-      <c r="AB6" s="80">
+      <c r="AB6" s="51">
         <f t="shared" ref="AB6" si="12">SUM(AB3:AB5)</f>
         <v>42</v>
       </c>
-      <c r="AC6" s="80">
+      <c r="AC6" s="51">
         <f t="shared" ref="AC6" si="13">SUM(AC3:AC5)</f>
         <v>42</v>
       </c>
-      <c r="AD6" s="80">
+      <c r="AD6" s="51">
         <f t="shared" ref="AD6" si="14">SUM(AD3:AD5)</f>
         <v>42</v>
       </c>
-      <c r="AE6" s="80">
+      <c r="AE6" s="51">
         <f t="shared" ref="AE6" si="15">SUM(AE3:AE5)</f>
         <v>42</v>
       </c>
-      <c r="AF6" s="80">
+      <c r="AF6" s="51">
         <f t="shared" ref="AF6" si="16">SUM(AF3:AF5)</f>
         <v>42</v>
       </c>
-      <c r="AG6" s="80">
+      <c r="AG6" s="51">
         <f t="shared" ref="AG6" si="17">SUM(AG3:AG5)</f>
         <v>42</v>
       </c>
-      <c r="AH6" s="80">
+      <c r="AH6" s="51">
         <f t="shared" ref="AH6" si="18">SUM(AH3:AH5)</f>
         <v>42</v>
       </c>
-      <c r="AI6" s="80">
+      <c r="AI6" s="51">
         <f t="shared" ref="AI6" si="19">SUM(AI3:AI5)</f>
         <v>42</v>
       </c>
-      <c r="AJ6" s="80">
+      <c r="AJ6" s="51">
         <f t="shared" ref="AJ6" si="20">SUM(AJ3:AJ5)</f>
         <v>42</v>
       </c>
-      <c r="AK6" s="80">
+      <c r="AK6" s="51">
         <f t="shared" ref="AK6" si="21">SUM(AK3:AK5)</f>
         <v>42</v>
       </c>
-      <c r="AL6" s="80">
+      <c r="AL6" s="51">
         <f t="shared" ref="AL6" si="22">SUM(AL3:AL5)</f>
         <v>42</v>
       </c>
-      <c r="AM6" s="80">
+      <c r="AM6" s="51">
         <f t="shared" ref="AM6" si="23">SUM(AM3:AM5)</f>
         <v>42</v>
       </c>
-      <c r="AN6" s="80">
+      <c r="AN6" s="51">
         <f t="shared" ref="AN6" si="24">SUM(AN3:AN5)</f>
         <v>42</v>
       </c>
-      <c r="AO6" s="80">
+      <c r="AO6" s="51">
         <f t="shared" ref="AO6" si="25">SUM(AO3:AO5)</f>
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="N9" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="O9" s="76" t="s">
+      <c r="O9" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="P9" s="76" t="s">
+      <c r="P9" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="Q9" s="76" t="s">
+      <c r="Q9" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="76" t="s">
+      <c r="R9" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="T9" s="76" t="s">
+      <c r="T9" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="U9" s="76" t="s">
+      <c r="U9" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="V9" s="76" t="s">
+      <c r="V9" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="W9" s="76" t="s">
+      <c r="W9" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="X9" s="76" t="s">
+      <c r="X9" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="Y9" s="76" t="s">
+      <c r="Y9" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Z9" s="76" t="s">
+      <c r="Z9" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AA9" s="76" t="s">
+      <c r="AA9" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="AB9" s="76" t="s">
+      <c r="AB9" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="AC9" s="76" t="s">
+      <c r="AC9" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AD9" s="76" t="s">
+      <c r="AD9" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="AE9" s="76" t="s">
+      <c r="AE9" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="AF9" s="76" t="s">
+      <c r="AF9" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="AG9" s="76" t="s">
+      <c r="AG9" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="AH9" s="76" t="s">
+      <c r="AH9" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="AI9" s="76" t="s">
+      <c r="AI9" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="76" t="s">
+      <c r="AJ9" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AK9" s="76" t="s">
+      <c r="AK9" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="AL9" s="76" t="s">
+      <c r="AL9" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AM9" s="76" t="s">
+      <c r="AM9" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AN9" s="76" t="s">
+      <c r="AN9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="AO9" s="76" t="s">
+      <c r="AO9" s="47" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="79">
-        <v>0</v>
-      </c>
-      <c r="C10" s="79">
-        <v>0</v>
-      </c>
-      <c r="D10" s="79">
-        <v>0</v>
-      </c>
-      <c r="E10" s="79">
-        <v>0</v>
-      </c>
-      <c r="F10" s="79">
-        <v>0</v>
-      </c>
-      <c r="G10" s="79">
-        <v>0</v>
-      </c>
-      <c r="H10" s="79">
-        <v>0</v>
-      </c>
-      <c r="I10" s="79">
-        <v>0</v>
-      </c>
-      <c r="J10" s="79">
-        <v>0</v>
-      </c>
-      <c r="K10" s="79">
-        <v>0</v>
-      </c>
-      <c r="L10" s="79">
-        <v>0</v>
-      </c>
-      <c r="M10" s="79">
-        <v>0</v>
-      </c>
-      <c r="N10" s="79">
-        <v>0</v>
-      </c>
-      <c r="O10" s="79">
-        <v>0</v>
-      </c>
-      <c r="P10" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="79">
-        <v>0</v>
-      </c>
-      <c r="R10" s="79">
-        <v>0</v>
-      </c>
-      <c r="S10" s="79">
-        <v>0</v>
-      </c>
-      <c r="T10" s="79">
-        <v>0</v>
-      </c>
-      <c r="U10" s="79">
-        <v>0</v>
-      </c>
-      <c r="V10" s="79">
-        <v>0</v>
-      </c>
-      <c r="W10" s="79">
-        <v>0</v>
-      </c>
-      <c r="X10" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="79">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="79">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="79">
+      <c r="B10" s="50">
+        <v>0</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0</v>
+      </c>
+      <c r="D10" s="50">
+        <v>0</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50">
+        <v>0</v>
+      </c>
+      <c r="G10" s="50">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0</v>
+      </c>
+      <c r="K10" s="50">
+        <v>0</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0</v>
+      </c>
+      <c r="M10" s="50">
+        <v>0</v>
+      </c>
+      <c r="N10" s="50">
+        <v>0</v>
+      </c>
+      <c r="O10" s="50">
+        <v>0</v>
+      </c>
+      <c r="P10" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>0</v>
+      </c>
+      <c r="R10" s="50">
+        <v>0</v>
+      </c>
+      <c r="S10" s="50">
+        <v>0</v>
+      </c>
+      <c r="T10" s="50">
+        <v>0</v>
+      </c>
+      <c r="U10" s="50">
+        <v>0</v>
+      </c>
+      <c r="V10" s="50">
+        <v>0</v>
+      </c>
+      <c r="W10" s="50">
+        <v>0</v>
+      </c>
+      <c r="X10" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="79">
-        <v>0</v>
-      </c>
-      <c r="C11" s="79">
-        <v>0</v>
-      </c>
-      <c r="D11" s="79">
-        <v>0</v>
-      </c>
-      <c r="E11" s="79">
-        <v>0</v>
-      </c>
-      <c r="F11" s="79">
-        <v>0</v>
-      </c>
-      <c r="G11" s="79">
-        <v>0</v>
-      </c>
-      <c r="H11" s="79">
-        <v>0</v>
-      </c>
-      <c r="I11" s="79">
-        <v>0</v>
-      </c>
-      <c r="J11" s="79">
-        <v>0</v>
-      </c>
-      <c r="K11" s="79">
-        <v>0</v>
-      </c>
-      <c r="L11" s="79">
-        <v>0</v>
-      </c>
-      <c r="M11" s="79">
-        <v>0</v>
-      </c>
-      <c r="N11" s="79">
-        <v>0</v>
-      </c>
-      <c r="O11" s="79">
-        <v>0</v>
-      </c>
-      <c r="P11" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="79">
-        <v>0</v>
-      </c>
-      <c r="R11" s="79">
-        <v>0</v>
-      </c>
-      <c r="S11" s="79">
-        <v>0</v>
-      </c>
-      <c r="T11" s="79">
-        <v>0</v>
-      </c>
-      <c r="U11" s="79">
-        <v>0</v>
-      </c>
-      <c r="V11" s="79">
-        <v>0</v>
-      </c>
-      <c r="W11" s="79">
-        <v>0</v>
-      </c>
-      <c r="X11" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="79">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="79">
+      <c r="B11" s="50">
+        <v>0</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="50">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
+        <v>0</v>
+      </c>
+      <c r="G11" s="50">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0</v>
+      </c>
+      <c r="I11" s="50">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0</v>
+      </c>
+      <c r="K11" s="50">
+        <v>0</v>
+      </c>
+      <c r="L11" s="50">
+        <v>0</v>
+      </c>
+      <c r="M11" s="50">
+        <v>0</v>
+      </c>
+      <c r="N11" s="50">
+        <v>0</v>
+      </c>
+      <c r="O11" s="50">
+        <v>0</v>
+      </c>
+      <c r="P11" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="50">
+        <v>0</v>
+      </c>
+      <c r="R11" s="50">
+        <v>0</v>
+      </c>
+      <c r="S11" s="50">
+        <v>0</v>
+      </c>
+      <c r="T11" s="50">
+        <v>0</v>
+      </c>
+      <c r="U11" s="50">
+        <v>0</v>
+      </c>
+      <c r="V11" s="50">
+        <v>0</v>
+      </c>
+      <c r="W11" s="50">
+        <v>0</v>
+      </c>
+      <c r="X11" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="79">
-        <v>0</v>
-      </c>
-      <c r="C12" s="79">
-        <v>0</v>
-      </c>
-      <c r="D12" s="79">
-        <v>0</v>
-      </c>
-      <c r="E12" s="79">
-        <v>0</v>
-      </c>
-      <c r="F12" s="79">
-        <v>0</v>
-      </c>
-      <c r="G12" s="79">
-        <v>0</v>
-      </c>
-      <c r="H12" s="79">
-        <v>0</v>
-      </c>
-      <c r="I12" s="79">
-        <v>0</v>
-      </c>
-      <c r="J12" s="79">
-        <v>0</v>
-      </c>
-      <c r="K12" s="79">
-        <v>0</v>
-      </c>
-      <c r="L12" s="79">
-        <v>0</v>
-      </c>
-      <c r="M12" s="79">
-        <v>0</v>
-      </c>
-      <c r="N12" s="79">
-        <v>0</v>
-      </c>
-      <c r="O12" s="79">
-        <v>0</v>
-      </c>
-      <c r="P12" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="79">
-        <v>0</v>
-      </c>
-      <c r="R12" s="79">
-        <v>0</v>
-      </c>
-      <c r="S12" s="79">
-        <v>0</v>
-      </c>
-      <c r="T12" s="79">
-        <v>0</v>
-      </c>
-      <c r="U12" s="79">
-        <v>0</v>
-      </c>
-      <c r="V12" s="79">
-        <v>0</v>
-      </c>
-      <c r="W12" s="79">
-        <v>0</v>
-      </c>
-      <c r="X12" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="79">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="79">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="79">
+      <c r="B12" s="50">
+        <v>0</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0</v>
+      </c>
+      <c r="O12" s="50">
+        <v>0</v>
+      </c>
+      <c r="P12" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="50">
+        <v>0</v>
+      </c>
+      <c r="R12" s="50">
+        <v>0</v>
+      </c>
+      <c r="S12" s="50">
+        <v>0</v>
+      </c>
+      <c r="T12" s="50">
+        <v>0</v>
+      </c>
+      <c r="U12" s="50">
+        <v>0</v>
+      </c>
+      <c r="V12" s="50">
+        <v>0</v>
+      </c>
+      <c r="W12" s="50">
+        <v>0</v>
+      </c>
+      <c r="X12" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A13" s="78"/>
-      <c r="B13" s="80">
+      <c r="A13" s="49"/>
+      <c r="B13" s="51">
         <f>SUM(B10:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="51">
         <f t="shared" ref="C13:AO13" si="26">SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K13" s="80">
+      <c r="K13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M13" s="80">
+      <c r="M13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N13" s="80">
+      <c r="N13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P13" s="80">
+      <c r="P13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="80">
+      <c r="Q13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R13" s="80">
+      <c r="R13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S13" s="80">
+      <c r="S13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T13" s="80">
+      <c r="T13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U13" s="80">
+      <c r="U13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V13" s="80">
+      <c r="V13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W13" s="80">
+      <c r="W13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="X13" s="80">
+      <c r="X13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="80">
+      <c r="Y13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="80">
+      <c r="Z13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="80">
+      <c r="AA13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="80">
+      <c r="AB13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="80">
+      <c r="AC13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="80">
+      <c r="AD13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="80">
+      <c r="AE13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="80">
+      <c r="AF13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="80">
+      <c r="AG13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="80">
+      <c r="AH13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="80">
+      <c r="AI13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="80">
+      <c r="AJ13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="80">
+      <c r="AK13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="80">
+      <c r="AL13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="80">
+      <c r="AM13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="80">
+      <c r="AN13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="80">
+      <c r="AO13" s="51">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="50">
         <v>1635</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="81">
-        <f>B15/B6</f>
-        <v>38.928571428571431</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="82"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="82"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="83"/>
+      <c r="B16" s="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="48">
+        <f>B15*150</f>
+        <v>245250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="53"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8178,7 +8350,7 @@
   <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8202,33 +8374,33 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="22"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="G3" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="23"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
@@ -8236,144 +8408,144 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="32" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="55" t="s">
         <v>101</v>
       </c>
       <c r="O5" s="24"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="24"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="32" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -8381,15 +8553,15 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -8397,15 +8569,15 @@
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -8413,15 +8585,15 @@
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="24"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -8429,15 +8601,15 @@
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8445,29 +8617,29 @@
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
@@ -8477,13 +8649,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
@@ -8493,13 +8665,13 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -8509,13 +8681,13 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -8525,13 +8697,13 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -8541,13 +8713,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -8557,13 +8729,13 @@
     <row r="24" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
@@ -8621,11 +8793,458 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301B467-8EF5-473C-94F7-70B86B36A85F}">
+  <dimension ref="B1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="G3" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="23"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="24"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+    </row>
+    <row r="26" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M5:M17"/>
+    <mergeCell ref="N5:N17"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="D18:J24"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="C5:E10"/>
+    <mergeCell ref="F5:H17"/>
+    <mergeCell ref="I5:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3741BDA-2F36-47FA-87E1-D1537F9BFEAA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
